--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Desktop\Desenvolvimentos\Python\data science\comparador de preço\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1901BF05-210D-4191-A5EA-0C55F3CBC1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA37768-BBAA-4096-A817-310489EFAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6E44B62-60C1-4AF2-8A08-C265AB12943C}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Caio Haensel Feijó</t>
-  </si>
-  <si>
-    <t>Cid Roberto Pereira Coelho</t>
-  </si>
-  <si>
-    <t>Edna da Conceição Costa C. Escanilha</t>
-  </si>
-  <si>
-    <t>Marly de Veiga Cabral Campos</t>
+    <t>Daniel Alves</t>
+  </si>
+  <si>
+    <t>Roberto Torres</t>
+  </si>
+  <si>
+    <t>Mariana da Silva</t>
+  </si>
+  <si>
+    <t>Antônio Fagundes</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3666</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>6766</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>6830</v>

--- a/empresa.xlsx
+++ b/empresa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Desktop\Desenvolvimentos\Python\data science\comparador de preço\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA37768-BBAA-4096-A817-310489EFAC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBF58CC-50D9-4F34-87EA-F530C5446A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C6E44B62-60C1-4AF2-8A08-C265AB12943C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2D3601E0-AD46-4742-A6A9-A546EEDBBB94}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>NOME PACIENTE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CODIGO PACIENTE</t>
   </si>
   <si>
+    <t>ALICE KIMICIAK BASTOS</t>
+  </si>
+  <si>
+    <t>EDUARDO COSTA REIS KUPFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARAH DA SILVA PINTO BRAGANÇA       </t>
+  </si>
+  <si>
+    <t>SARAH DA SILVA PINTO BRAGANÇA (RTA)</t>
+  </si>
+  <si>
+    <t>SARAH DA SILVA PINTO BRAGANÇA  (BOBATH)</t>
+  </si>
+  <si>
     <t>QTDE TOTAL ATENDIMENTOS</t>
   </si>
   <si>
@@ -49,16 +61,10 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Daniel Alves</t>
-  </si>
-  <si>
-    <t>Roberto Torres</t>
-  </si>
-  <si>
-    <t>Mariana da Silva</t>
-  </si>
-  <si>
-    <t>Antônio Fagundes</t>
+    <t xml:space="preserve"> NOME PACIENTE </t>
+  </si>
+  <si>
+    <t>Ricardo Kusbicet</t>
   </si>
 </sst>
 </file>
@@ -94,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,105 +416,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC18C955-5438-41D1-B37F-7E1E8FBF86BB}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8196BFFC-A5EE-4E62-860D-7DB0E450DA4E}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>3666</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>48</v>
-      </c>
-      <c r="E2">
-        <v>288</v>
+        <v>45</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1395</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>6766</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>48</v>
-      </c>
-      <c r="E3">
-        <v>624</v>
+        <v>42</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1302</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>5683</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>472</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>6830</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>48</v>
-      </c>
-      <c r="E5">
-        <v>528</v>
+        <v>216</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>180</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>180</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3780</v>
       </c>
     </row>
   </sheetData>
